--- a/EGR102-Intro-to-Computing/greensheet.xlsx
+++ b/EGR102-Intro-to-Computing/greensheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University-Coursework\EGR102-Intro-to-Computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AD7D34-8611-42D9-9EA6-2E0710EAC52F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEBDA5D-B0A1-4E6A-8CC7-CFB6173E3B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="15795" windowHeight="10080" xr2:uid="{830B9CCB-746C-4FBB-A9A2-839F952547C2}"/>
+    <workbookView xWindow="4515" yWindow="2520" windowWidth="15795" windowHeight="10080" xr2:uid="{830B9CCB-746C-4FBB-A9A2-839F952547C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,112 +387,112 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>3.9296187683284458</v>
+        <v>3.9198435972629522</v>
       </c>
       <c r="B1">
-        <v>3.924731182795699</v>
+        <v>3.9002932551319649</v>
       </c>
       <c r="C1">
-        <v>3.9257086999022484</v>
+        <v>3.9110459433040079</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3.924731182795699</v>
+        <v>3.9149560117302054</v>
       </c>
       <c r="B2">
-        <v>3.9100684261974585</v>
+        <v>3.9002932551319649</v>
       </c>
       <c r="C2">
-        <v>3.9169110459433036</v>
+        <v>3.9081133919843594</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3.924731182795699</v>
+        <v>3.9002932551319649</v>
       </c>
       <c r="B3">
-        <v>3.9198435972629522</v>
+        <v>3.8954056695992181</v>
       </c>
       <c r="C3">
-        <v>3.9237536656891501</v>
+        <v>3.8993157380254155</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3.924731182795699</v>
+        <v>3.9002932551319649</v>
       </c>
       <c r="B4">
-        <v>3.9198435972629522</v>
+        <v>3.8954056695992181</v>
       </c>
       <c r="C4">
-        <v>3.9237536656891492</v>
+        <v>3.8973607038123168</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.9198435972629522</v>
+        <v>3.8954056695992181</v>
       </c>
       <c r="B5">
-        <v>3.9149560117302054</v>
+        <v>3.8954056695992181</v>
       </c>
       <c r="C5">
-        <v>3.9188660801564028</v>
+        <v>3.8954056695992181</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3.9198435972629522</v>
+        <v>3.9002932551319649</v>
       </c>
       <c r="B6">
-        <v>3.9100684261974585</v>
+        <v>3.8954056695992181</v>
       </c>
       <c r="C6">
-        <v>3.9149560117302058</v>
+        <v>3.8963831867057679</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3.9149560117302054</v>
+        <v>3.8954056695992181</v>
       </c>
       <c r="B7">
-        <v>3.9100684261974585</v>
+        <v>3.8905180840664713</v>
       </c>
       <c r="C7">
-        <v>3.913978494623656</v>
+        <v>3.8924731182795695</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3.9100684261974585</v>
+        <v>3.8905180840664713</v>
       </c>
       <c r="B8">
-        <v>3.9051808406647117</v>
+        <v>3.8856304985337244</v>
       </c>
       <c r="C8">
-        <v>3.9090909090909092</v>
+        <v>3.8895405669599219</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3.9100684261974585</v>
+        <v>3.8905180840664713</v>
       </c>
       <c r="B9">
-        <v>3.9100684261974585</v>
+        <v>3.8905180840664713</v>
       </c>
       <c r="C9">
-        <v>3.9100684261974585</v>
+        <v>3.8905180840664713</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3.9100684261974585</v>
+        <v>3.8905180840664713</v>
       </c>
       <c r="B10">
-        <v>3.9051808406647117</v>
+        <v>3.8905180840664713</v>
       </c>
       <c r="C10">
-        <v>3.9081133919843603</v>
+        <v>3.8905180840664713</v>
       </c>
     </row>
   </sheetData>
